--- a/Database/Cornestean/Temperatura_Umiditate_Bucuresti.xlsx
+++ b/Database/Cornestean/Temperatura_Umiditate_Bucuresti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository_licenta\Licenta_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB1615-F4DE-4AC9-9D66-8298BF10EFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2275CBEF-64E8-44C2-8220-45B0B181B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="2100" windowWidth="15375" windowHeight="7875" xr2:uid="{197AABFA-7AFA-4E2F-B553-771013BD768C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{197AABFA-7AFA-4E2F-B553-771013BD768C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D044566D-1185-474D-9F00-2EB6F350695A}">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,13 +435,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43891</v>
+        <v>43876</v>
       </c>
       <c r="C2">
-        <v>43.3</v>
+        <v>44.2</v>
       </c>
       <c r="D2">
-        <v>61.4</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,13 +449,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43892</v>
+        <v>43877</v>
       </c>
       <c r="C3">
-        <v>46.6</v>
+        <v>43.5</v>
       </c>
       <c r="D3">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>43893</v>
+        <v>43878</v>
       </c>
       <c r="C4">
-        <v>51.4</v>
+        <v>44.1</v>
       </c>
       <c r="D4">
-        <v>71.2</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>43894</v>
+        <v>43879</v>
       </c>
       <c r="C5">
-        <v>53.8</v>
+        <v>45.6</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,13 +491,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>43895</v>
+        <v>43880</v>
       </c>
       <c r="C6">
-        <v>46.7</v>
+        <v>46.4</v>
       </c>
       <c r="D6">
-        <v>87.2</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,13 +505,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>43896</v>
+        <v>43881</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>42.9</v>
       </c>
       <c r="D7">
-        <v>65.400000000000006</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,13 +519,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43897</v>
+        <v>43882</v>
       </c>
       <c r="C8">
-        <v>54.3</v>
+        <v>42.4</v>
       </c>
       <c r="D8">
-        <v>59.7</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,13 +533,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>43898</v>
+        <v>43883</v>
       </c>
       <c r="C9">
-        <v>50.5</v>
+        <v>42.2</v>
       </c>
       <c r="D9">
-        <v>82.5</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,13 +547,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>43899</v>
+        <v>43884</v>
       </c>
       <c r="C10">
-        <v>46.8</v>
+        <v>43.3</v>
       </c>
       <c r="D10">
-        <v>98.1</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>43900</v>
+        <v>43885</v>
       </c>
       <c r="C11">
-        <v>49.1</v>
+        <v>49.7</v>
       </c>
       <c r="D11">
-        <v>91.7</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,13 +575,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>43901</v>
+        <v>43886</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>78.2</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +589,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>43902</v>
+        <v>43887</v>
       </c>
       <c r="C13">
-        <v>55.3</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>66.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +603,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>43903</v>
+        <v>43888</v>
       </c>
       <c r="C14">
-        <v>59.2</v>
+        <v>47.1</v>
       </c>
       <c r="D14">
-        <v>61.5</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,13 +617,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>43904</v>
+        <v>43889</v>
       </c>
       <c r="C15">
-        <v>49.3</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D15">
-        <v>68.5</v>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +631,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>43905</v>
+        <v>43890</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>42.4</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +645,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>43906</v>
+        <v>43891</v>
       </c>
       <c r="C17">
-        <v>37.799999999999997</v>
+        <v>43.3</v>
       </c>
       <c r="D17">
-        <v>42.9</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,13 +659,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>43907</v>
+        <v>43892</v>
       </c>
       <c r="C18">
-        <v>43.5</v>
+        <v>46.6</v>
       </c>
       <c r="D18">
-        <v>48.8</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +673,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>43908</v>
+        <v>43893</v>
       </c>
       <c r="C19">
-        <v>44.6</v>
+        <v>51.4</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>43909</v>
+        <v>43894</v>
       </c>
       <c r="C20">
-        <v>49.3</v>
+        <v>53.8</v>
       </c>
       <c r="D20">
-        <v>54.1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>43910</v>
+        <v>43895</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>46.7</v>
       </c>
       <c r="D21">
-        <v>51.1</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>43911</v>
+        <v>43896</v>
       </c>
       <c r="C22">
-        <v>58.3</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>54.1</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +729,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>43912</v>
+        <v>43897</v>
       </c>
       <c r="C23">
-        <v>42.2</v>
+        <v>54.3</v>
       </c>
       <c r="D23">
-        <v>73.8</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +743,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>43913</v>
+        <v>43898</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>50.5</v>
       </c>
       <c r="D24">
-        <v>89.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>43914</v>
+        <v>43899</v>
       </c>
       <c r="C25">
-        <v>35.799999999999997</v>
+        <v>46.8</v>
       </c>
       <c r="D25">
-        <v>50.4</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>43915</v>
+        <v>43900</v>
       </c>
       <c r="C26">
-        <v>40.6</v>
+        <v>49.1</v>
       </c>
       <c r="D26">
-        <v>38.1</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +785,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>43916</v>
+        <v>43901</v>
       </c>
       <c r="C27">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>44.6</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +799,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>43917</v>
+        <v>43902</v>
       </c>
       <c r="C28">
-        <v>52.7</v>
+        <v>55.3</v>
       </c>
       <c r="D28">
-        <v>42.2</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +813,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>43918</v>
+        <v>43903</v>
       </c>
       <c r="C29">
-        <v>53.1</v>
+        <v>59.2</v>
       </c>
       <c r="D29">
-        <v>44.4</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +827,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>43919</v>
+        <v>43904</v>
       </c>
       <c r="C30">
-        <v>55.4</v>
+        <v>49.3</v>
       </c>
       <c r="D30">
-        <v>47.7</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,13 +841,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>43920</v>
+        <v>43905</v>
       </c>
       <c r="C31">
-        <v>55.6</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>46.7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,13 +855,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>43921</v>
+        <v>43906</v>
       </c>
       <c r="C32">
-        <v>37.200000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D32">
-        <v>56.4</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,13 +869,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>43922</v>
+        <v>43907</v>
       </c>
       <c r="C33">
-        <v>39.5</v>
+        <v>43.5</v>
       </c>
       <c r="D33">
-        <v>43.3</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,13 +883,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>43923</v>
+        <v>43908</v>
       </c>
       <c r="C34">
         <v>44.6</v>
       </c>
       <c r="D34">
-        <v>37.1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,13 +897,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>43924</v>
+        <v>43909</v>
       </c>
       <c r="C35">
-        <v>47</v>
+        <v>49.3</v>
       </c>
       <c r="D35">
-        <v>51.7</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,13 +911,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>43925</v>
+        <v>43910</v>
       </c>
       <c r="C36">
-        <v>49.5</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>60.4</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,13 +925,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>43926</v>
+        <v>43911</v>
       </c>
       <c r="C37">
-        <v>52.9</v>
+        <v>58.3</v>
       </c>
       <c r="D37">
-        <v>38.299999999999997</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,13 +939,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>43927</v>
+        <v>43912</v>
       </c>
       <c r="C38">
-        <v>49.8</v>
+        <v>42.2</v>
       </c>
       <c r="D38">
-        <v>30.5</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -953,13 +953,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>43928</v>
+        <v>43913</v>
       </c>
       <c r="C39">
-        <v>49.9</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>30.7</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,13 +967,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>43929</v>
+        <v>43914</v>
       </c>
       <c r="C40">
-        <v>51.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D40">
-        <v>39.200000000000003</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,13 +981,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>43930</v>
+        <v>43915</v>
       </c>
       <c r="C41">
-        <v>57.5</v>
+        <v>40.6</v>
       </c>
       <c r="D41">
-        <v>39.299999999999997</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>43931</v>
+        <v>43916</v>
       </c>
       <c r="C42">
-        <v>61.1</v>
+        <v>47.5</v>
       </c>
       <c r="D42">
-        <v>40.4</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,13 +1009,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>43932</v>
+        <v>43917</v>
       </c>
       <c r="C43">
-        <v>55.7</v>
+        <v>52.7</v>
       </c>
       <c r="D43">
-        <v>34.200000000000003</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,13 +1023,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>43933</v>
+        <v>43918</v>
       </c>
       <c r="C44">
-        <v>54.2</v>
+        <v>53.1</v>
       </c>
       <c r="D44">
-        <v>41.2</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,13 +1037,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>43934</v>
+        <v>43919</v>
       </c>
       <c r="C45">
-        <v>58.3</v>
+        <v>55.4</v>
       </c>
       <c r="D45">
-        <v>41.2</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,13 +1051,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>43935</v>
+        <v>43920</v>
       </c>
       <c r="C46">
-        <v>58.2</v>
+        <v>55.6</v>
       </c>
       <c r="D46">
-        <v>54.1</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,13 +1065,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>43936</v>
+        <v>43921</v>
       </c>
       <c r="C47">
-        <v>44.4</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D47">
-        <v>68.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,13 +1079,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>43937</v>
+        <v>43922</v>
       </c>
       <c r="C48">
-        <v>51.9</v>
+        <v>39.5</v>
       </c>
       <c r="D48">
-        <v>56.9</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,13 +1093,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>43938</v>
+        <v>43923</v>
       </c>
       <c r="C49">
-        <v>59.6</v>
+        <v>44.6</v>
       </c>
       <c r="D49">
-        <v>50.3</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>43939</v>
+        <v>43924</v>
       </c>
       <c r="C50">
-        <v>61.5</v>
+        <v>47</v>
       </c>
       <c r="D50">
-        <v>53.5</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,13 +1121,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>43940</v>
+        <v>43925</v>
       </c>
       <c r="C51">
-        <v>60.6</v>
+        <v>49.5</v>
       </c>
       <c r="D51">
-        <v>55.7</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,13 +1135,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>43941</v>
+        <v>43926</v>
       </c>
       <c r="C52">
-        <v>52.3</v>
+        <v>52.9</v>
       </c>
       <c r="D52">
-        <v>54.7</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,13 +1149,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>43942</v>
+        <v>43927</v>
       </c>
       <c r="C53">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="D53">
-        <v>41.6</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,13 +1163,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>43943</v>
+        <v>43928</v>
       </c>
       <c r="C54">
-        <v>51.3</v>
+        <v>49.9</v>
       </c>
       <c r="D54">
-        <v>43.7</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,13 +1177,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>43944</v>
+        <v>43929</v>
       </c>
       <c r="C55">
-        <v>53.6</v>
+        <v>51.9</v>
       </c>
       <c r="D55">
-        <v>41.8</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,13 +1191,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="C56">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="D56">
-        <v>43</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,13 +1205,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="C57">
-        <v>62.4</v>
+        <v>61.1</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,13 +1219,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>43947</v>
+        <v>43932</v>
       </c>
       <c r="C58">
-        <v>60.3</v>
+        <v>55.7</v>
       </c>
       <c r="D58">
-        <v>41.1</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,13 +1233,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>43948</v>
+        <v>43933</v>
       </c>
       <c r="C59">
-        <v>57.8</v>
+        <v>54.2</v>
       </c>
       <c r="D59">
-        <v>39.5</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,13 +1247,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>43949</v>
+        <v>43934</v>
       </c>
       <c r="C60">
-        <v>59.9</v>
+        <v>58.3</v>
       </c>
       <c r="D60">
-        <v>53</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,13 +1261,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>43950</v>
+        <v>43935</v>
       </c>
       <c r="C61">
-        <v>64.2</v>
+        <v>58.2</v>
       </c>
       <c r="D61">
-        <v>49.2</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,13 +1275,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>43951</v>
+        <v>43936</v>
       </c>
       <c r="C62">
-        <v>63.2</v>
+        <v>44.4</v>
       </c>
       <c r="D62">
-        <v>69.8</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,13 +1289,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>43952</v>
+        <v>43937</v>
       </c>
       <c r="C63">
-        <v>63.9</v>
+        <v>51.9</v>
       </c>
       <c r="D63">
-        <v>68.3</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,13 +1303,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>43953</v>
+        <v>43938</v>
       </c>
       <c r="C64">
-        <v>65.2</v>
+        <v>59.6</v>
       </c>
       <c r="D64">
-        <v>55.9</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,13 +1317,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>43954</v>
+        <v>43939</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>61.5</v>
       </c>
       <c r="D65">
-        <v>77.8</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,13 +1331,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>43955</v>
+        <v>43940</v>
       </c>
       <c r="C66">
-        <v>57.4</v>
+        <v>60.6</v>
       </c>
       <c r="D66">
-        <v>86.2</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,13 +1345,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>43956</v>
+        <v>43941</v>
       </c>
       <c r="C67">
-        <v>60.8</v>
+        <v>52.3</v>
       </c>
       <c r="D67">
-        <v>69.8</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,13 +1359,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>43957</v>
+        <v>43942</v>
       </c>
       <c r="C68">
-        <v>56.4</v>
+        <v>50.1</v>
       </c>
       <c r="D68">
-        <v>76.5</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,13 +1373,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>43958</v>
+        <v>43943</v>
       </c>
       <c r="C69">
-        <v>53.8</v>
+        <v>51.3</v>
       </c>
       <c r="D69">
-        <v>61.1</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,13 +1387,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>43959</v>
+        <v>43944</v>
       </c>
       <c r="C70">
-        <v>57.4</v>
+        <v>53.6</v>
       </c>
       <c r="D70">
-        <v>57.8</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1401,13 +1401,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>43960</v>
+        <v>43945</v>
       </c>
       <c r="C71">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D71">
-        <v>54.2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,13 +1415,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>43961</v>
+        <v>43946</v>
       </c>
       <c r="C72">
-        <v>65.7</v>
+        <v>62.4</v>
       </c>
       <c r="D72">
-        <v>55.3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,13 +1429,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>43962</v>
+        <v>43947</v>
       </c>
       <c r="C73">
-        <v>71.7</v>
+        <v>60.3</v>
       </c>
       <c r="D73">
-        <v>52.5</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,13 +1443,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>43963</v>
+        <v>43948</v>
       </c>
       <c r="C74">
-        <v>72.599999999999994</v>
+        <v>57.8</v>
       </c>
       <c r="D74">
-        <v>47.4</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,13 +1457,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>43964</v>
+        <v>43949</v>
       </c>
       <c r="C75">
-        <v>57.8</v>
+        <v>59.9</v>
       </c>
       <c r="D75">
-        <v>51.1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,13 +1471,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>43965</v>
+        <v>43950</v>
       </c>
       <c r="C76">
-        <v>69.099999999999994</v>
+        <v>64.2</v>
       </c>
       <c r="D76">
-        <v>57.2</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,13 +1485,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>43966</v>
+        <v>43951</v>
       </c>
       <c r="C77">
-        <v>64.099999999999994</v>
+        <v>63.2</v>
       </c>
       <c r="D77">
-        <v>66</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,13 +1499,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>43967</v>
+        <v>43952</v>
       </c>
       <c r="C78">
-        <v>70.3</v>
+        <v>63.9</v>
       </c>
       <c r="D78">
-        <v>58.7</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,13 +1513,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>43968</v>
+        <v>43953</v>
       </c>
       <c r="C79">
-        <v>68.2</v>
+        <v>65.2</v>
       </c>
       <c r="D79">
-        <v>63.6</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,13 +1527,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>43969</v>
+        <v>43954</v>
       </c>
       <c r="C80">
-        <v>65.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="D80">
-        <v>61</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,13 +1541,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>43970</v>
+        <v>43955</v>
       </c>
       <c r="C81">
-        <v>69.8</v>
+        <v>57.4</v>
       </c>
       <c r="D81">
-        <v>63.6</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,13 +1555,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>43971</v>
+        <v>43956</v>
       </c>
       <c r="C82">
-        <v>67.5</v>
+        <v>60.8</v>
       </c>
       <c r="D82">
-        <v>70.7</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,13 +1569,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>43972</v>
+        <v>43957</v>
       </c>
       <c r="C83">
-        <v>55.4</v>
+        <v>56.4</v>
       </c>
       <c r="D83">
-        <v>75.8</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,13 +1583,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>43973</v>
+        <v>43958</v>
       </c>
       <c r="C84">
-        <v>56.5</v>
+        <v>53.8</v>
       </c>
       <c r="D84">
-        <v>69.2</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>43974</v>
+        <v>43959</v>
       </c>
       <c r="C85">
-        <v>59.4</v>
+        <v>57.4</v>
       </c>
       <c r="D85">
-        <v>58.2</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="C86">
-        <v>60.5</v>
+        <v>62</v>
       </c>
       <c r="D86">
-        <v>66.400000000000006</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="C87">
-        <v>59.2</v>
+        <v>65.7</v>
       </c>
       <c r="D87">
-        <v>64.900000000000006</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>43977</v>
+        <v>43962</v>
       </c>
       <c r="C88">
-        <v>56.5</v>
+        <v>71.7</v>
       </c>
       <c r="D88">
-        <v>76.2</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>43978</v>
+        <v>43963</v>
       </c>
       <c r="C89">
-        <v>57.4</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="D89">
-        <v>73.2</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>43979</v>
+        <v>43964</v>
       </c>
       <c r="C90">
-        <v>58.8</v>
+        <v>57.8</v>
       </c>
       <c r="D90">
-        <v>72.7</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>43980</v>
+        <v>43965</v>
       </c>
       <c r="C91">
-        <v>58.5</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D91">
-        <v>74.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>43981</v>
+        <v>43966</v>
       </c>
       <c r="C92">
-        <v>58.6</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="D92">
-        <v>78.099999999999994</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>43982</v>
+        <v>43967</v>
       </c>
       <c r="C93">
-        <v>62.1</v>
+        <v>70.3</v>
       </c>
       <c r="D93">
-        <v>59.7</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>43983</v>
+        <v>43968</v>
       </c>
       <c r="C94">
-        <v>60.4</v>
+        <v>68.2</v>
       </c>
       <c r="D94">
-        <v>64.7</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>43984</v>
+        <v>43969</v>
       </c>
       <c r="C95">
-        <v>54.4</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D95">
-        <v>82.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>43985</v>
+        <v>43970</v>
       </c>
       <c r="C96">
-        <v>58.8</v>
+        <v>69.8</v>
       </c>
       <c r="D96">
-        <v>65</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>43986</v>
+        <v>43971</v>
       </c>
       <c r="C97">
-        <v>65.2</v>
+        <v>67.5</v>
       </c>
       <c r="D97">
-        <v>61</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>43987</v>
+        <v>43972</v>
       </c>
       <c r="C98">
-        <v>72.8</v>
+        <v>55.4</v>
       </c>
       <c r="D98">
-        <v>53.5</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1793,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>43988</v>
+        <v>43973</v>
       </c>
       <c r="C99">
-        <v>73.3</v>
+        <v>56.5</v>
       </c>
       <c r="D99">
-        <v>58.9</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,13 +1807,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>43989</v>
+        <v>43974</v>
       </c>
       <c r="C100">
-        <v>69.3</v>
+        <v>59.4</v>
       </c>
       <c r="D100">
-        <v>60.6</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,13 +1821,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>43990</v>
+        <v>43975</v>
       </c>
       <c r="C101">
-        <v>68.7</v>
+        <v>60.5</v>
       </c>
       <c r="D101">
-        <v>71.5</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,13 +1835,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>43991</v>
+        <v>43976</v>
       </c>
       <c r="C102">
-        <v>75.3</v>
+        <v>59.2</v>
       </c>
       <c r="D102">
-        <v>61.8</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,13 +1849,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>43992</v>
+        <v>43977</v>
       </c>
       <c r="C103">
-        <v>74.2</v>
+        <v>56.5</v>
       </c>
       <c r="D103">
-        <v>65.7</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,13 +1863,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>43993</v>
+        <v>43978</v>
       </c>
       <c r="C104">
-        <v>70.400000000000006</v>
+        <v>57.4</v>
       </c>
       <c r="D104">
-        <v>72.5</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,13 +1877,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>43994</v>
+        <v>43979</v>
       </c>
       <c r="C105">
-        <v>68.5</v>
+        <v>58.8</v>
       </c>
       <c r="D105">
-        <v>81.599999999999994</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,13 +1891,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>43995</v>
+        <v>43980</v>
       </c>
       <c r="C106">
-        <v>72</v>
+        <v>58.5</v>
       </c>
       <c r="D106">
-        <v>72</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,13 +1905,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>43996</v>
+        <v>43981</v>
       </c>
       <c r="C107">
-        <v>70.8</v>
+        <v>58.6</v>
       </c>
       <c r="D107">
-        <v>83.3</v>
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1919,13 +1919,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>43997</v>
+        <v>43982</v>
       </c>
       <c r="C108">
-        <v>68.5</v>
+        <v>62.1</v>
       </c>
       <c r="D108">
-        <v>91.7</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,13 +1933,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>43998</v>
+        <v>43983</v>
       </c>
       <c r="C109">
-        <v>68.2</v>
+        <v>60.4</v>
       </c>
       <c r="D109">
-        <v>83.8</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1947,13 +1947,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>43999</v>
+        <v>43984</v>
       </c>
       <c r="C110">
-        <v>67.3</v>
+        <v>54.4</v>
       </c>
       <c r="D110">
-        <v>88.7</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,13 +1961,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>44000</v>
+        <v>43985</v>
       </c>
       <c r="C111">
-        <v>69.599999999999994</v>
+        <v>58.8</v>
       </c>
       <c r="D111">
-        <v>82.3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1975,13 +1975,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>44001</v>
+        <v>43986</v>
       </c>
       <c r="C112">
-        <v>70.7</v>
+        <v>65.2</v>
       </c>
       <c r="D112">
-        <v>79.7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,13 +1989,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>44002</v>
+        <v>43987</v>
       </c>
       <c r="C113">
-        <v>73.3</v>
+        <v>72.8</v>
       </c>
       <c r="D113">
-        <v>69.2</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,13 +2003,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>44003</v>
+        <v>43988</v>
       </c>
       <c r="C114">
-        <v>67.8</v>
+        <v>73.3</v>
       </c>
       <c r="D114">
-        <v>83</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,13 +2017,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>44004</v>
+        <v>43989</v>
       </c>
       <c r="C115">
-        <v>68.5</v>
+        <v>69.3</v>
       </c>
       <c r="D115">
-        <v>82.2</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,13 +2031,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>44005</v>
+        <v>43990</v>
       </c>
       <c r="C116">
-        <v>69.099999999999994</v>
+        <v>68.7</v>
       </c>
       <c r="D116">
-        <v>81.099999999999994</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,13 +2045,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>44006</v>
+        <v>43991</v>
       </c>
       <c r="C117">
-        <v>72.7</v>
+        <v>75.3</v>
       </c>
       <c r="D117">
-        <v>70.3</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,13 +2059,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>44007</v>
+        <v>43992</v>
       </c>
       <c r="C118">
         <v>74.2</v>
       </c>
       <c r="D118">
-        <v>72.2</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,13 +2073,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>44008</v>
+        <v>43993</v>
       </c>
       <c r="C119">
-        <v>76.400000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="D119">
-        <v>61.7</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,13 +2087,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>44009</v>
+        <v>43994</v>
       </c>
       <c r="C120">
-        <v>76.2</v>
+        <v>68.5</v>
       </c>
       <c r="D120">
-        <v>57</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,13 +2101,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>44010</v>
+        <v>43995</v>
       </c>
       <c r="C121">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D121">
-        <v>56.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,13 +2115,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>44011</v>
+        <v>43996</v>
       </c>
       <c r="C122">
-        <v>81</v>
+        <v>70.8</v>
       </c>
       <c r="D122">
-        <v>59.5</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,13 +2129,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>44012</v>
+        <v>43997</v>
       </c>
       <c r="C123">
-        <v>80.7</v>
+        <v>68.5</v>
       </c>
       <c r="D123">
-        <v>61.1</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2143,13 +2143,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>44013</v>
+        <v>43998</v>
       </c>
       <c r="C124">
-        <v>79.5</v>
+        <v>68.2</v>
       </c>
       <c r="D124">
-        <v>59.6</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2157,13 +2157,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>44014</v>
+        <v>43999</v>
       </c>
       <c r="C125">
-        <v>81.2</v>
+        <v>67.3</v>
       </c>
       <c r="D125">
-        <v>54</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2171,13 +2171,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>44015</v>
+        <v>44000</v>
       </c>
       <c r="C126">
-        <v>81.7</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="D126">
-        <v>48.7</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,13 +2185,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>44016</v>
+        <v>44001</v>
       </c>
       <c r="C127">
-        <v>77.599999999999994</v>
+        <v>70.7</v>
       </c>
       <c r="D127">
-        <v>69</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,10 +2199,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>44017</v>
+        <v>44002</v>
       </c>
       <c r="C128">
-        <v>77.2</v>
+        <v>73.3</v>
       </c>
       <c r="D128">
         <v>69.2</v>
@@ -2213,13 +2213,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>44018</v>
+        <v>44003</v>
       </c>
       <c r="C129">
-        <v>80.599999999999994</v>
+        <v>67.8</v>
       </c>
       <c r="D129">
-        <v>58.6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,13 +2227,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>44019</v>
+        <v>44004</v>
       </c>
       <c r="C130">
-        <v>75.5</v>
+        <v>68.5</v>
       </c>
       <c r="D130">
-        <v>71.8</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,13 +2241,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>44020</v>
+        <v>44005</v>
       </c>
       <c r="C131">
-        <v>68.599999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D131">
-        <v>67.400000000000006</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,13 +2255,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>44021</v>
+        <v>44006</v>
       </c>
       <c r="C132">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="D132">
-        <v>58</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2269,13 +2269,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>44022</v>
+        <v>44007</v>
       </c>
       <c r="C133">
-        <v>75.8</v>
+        <v>74.2</v>
       </c>
       <c r="D133">
-        <v>54.4</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2283,13 +2283,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>44023</v>
+        <v>44008</v>
       </c>
       <c r="C134">
-        <v>76.599999999999994</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="D134">
-        <v>51.1</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,13 +2297,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>44024</v>
+        <v>44009</v>
       </c>
       <c r="C135">
-        <v>77.2</v>
+        <v>76.2</v>
       </c>
       <c r="D135">
-        <v>53.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,13 +2311,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>44025</v>
+        <v>44010</v>
       </c>
       <c r="C136">
-        <v>63.8</v>
+        <v>78</v>
       </c>
       <c r="D136">
-        <v>80.599999999999994</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,13 +2325,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>44026</v>
+        <v>44011</v>
       </c>
       <c r="C137">
-        <v>67.5</v>
+        <v>81</v>
       </c>
       <c r="D137">
-        <v>57.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,13 +2339,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>44027</v>
+        <v>44012</v>
       </c>
       <c r="C138">
-        <v>71.099999999999994</v>
+        <v>80.7</v>
       </c>
       <c r="D138">
-        <v>52.9</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,13 +2353,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>44028</v>
+        <v>44013</v>
       </c>
       <c r="C139">
-        <v>74.2</v>
+        <v>79.5</v>
       </c>
       <c r="D139">
-        <v>50.7</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2367,13 +2367,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>44029</v>
+        <v>44014</v>
       </c>
       <c r="C140">
-        <v>73.5</v>
+        <v>81.2</v>
       </c>
       <c r="D140">
-        <v>59.4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,13 +2381,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>44030</v>
+        <v>44015</v>
       </c>
       <c r="C141">
-        <v>74.7</v>
+        <v>81.7</v>
       </c>
       <c r="D141">
-        <v>55.9</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2395,13 +2395,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>44031</v>
+        <v>44016</v>
       </c>
       <c r="C142">
-        <v>72</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D142">
-        <v>70.3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,13 +2409,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>44032</v>
+        <v>44017</v>
       </c>
       <c r="C143">
-        <v>71.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="D143">
-        <v>73.099999999999994</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>44033</v>
+        <v>44018</v>
       </c>
       <c r="C144">
-        <v>74.099999999999994</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="D144">
-        <v>65.3</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2437,13 +2437,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>44034</v>
+        <v>44019</v>
       </c>
       <c r="C145">
-        <v>76.8</v>
+        <v>75.5</v>
       </c>
       <c r="D145">
-        <v>64</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2451,13 +2451,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>44035</v>
+        <v>44020</v>
       </c>
       <c r="C146">
-        <v>74.900000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D146">
-        <v>63.4</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2465,13 +2465,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>44036</v>
+        <v>44021</v>
       </c>
       <c r="C147">
-        <v>75.7</v>
+        <v>73.5</v>
       </c>
       <c r="D147">
-        <v>64.599999999999994</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2479,13 +2479,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>44037</v>
+        <v>44022</v>
       </c>
       <c r="C148">
-        <v>78.2</v>
+        <v>75.8</v>
       </c>
       <c r="D148">
-        <v>53.6</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,13 +2493,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>44038</v>
+        <v>44023</v>
       </c>
       <c r="C149">
-        <v>74.2</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D149">
-        <v>58.6</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2507,13 +2507,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>44039</v>
+        <v>44024</v>
       </c>
       <c r="C150">
-        <v>76.599999999999994</v>
+        <v>77.2</v>
       </c>
       <c r="D150">
-        <v>63.2</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2521,13 +2521,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>44040</v>
+        <v>44025</v>
       </c>
       <c r="C151">
-        <v>78.599999999999994</v>
+        <v>63.8</v>
       </c>
       <c r="D151">
-        <v>57</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2535,13 +2535,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>44041</v>
+        <v>44026</v>
       </c>
       <c r="C152">
-        <v>81.5</v>
+        <v>67.5</v>
       </c>
       <c r="D152">
-        <v>55.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,13 +2549,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>44042</v>
+        <v>44027</v>
       </c>
       <c r="C153">
-        <v>84.4</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D153">
-        <v>51.5</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,13 +2563,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>44043</v>
+        <v>44028</v>
       </c>
       <c r="C154">
-        <v>84</v>
+        <v>74.2</v>
       </c>
       <c r="D154">
-        <v>54.5</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,13 +2577,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>44044</v>
+        <v>44029</v>
       </c>
       <c r="C155">
-        <v>78.099999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="D155">
-        <v>52.4</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,13 +2591,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>44045</v>
+        <v>44030</v>
       </c>
       <c r="C156">
-        <v>75.3</v>
+        <v>74.7</v>
       </c>
       <c r="D156">
-        <v>43.9</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2605,13 +2605,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>44046</v>
+        <v>44031</v>
       </c>
       <c r="C157">
-        <v>75.400000000000006</v>
+        <v>72</v>
       </c>
       <c r="D157">
-        <v>50.5</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2619,13 +2619,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>44047</v>
+        <v>44032</v>
       </c>
       <c r="C158">
-        <v>76</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D158">
-        <v>54.2</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2633,13 +2633,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>44048</v>
+        <v>44033</v>
       </c>
       <c r="C159">
-        <v>76.099999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D159">
-        <v>51.8</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2647,13 +2647,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>44049</v>
+        <v>44034</v>
       </c>
       <c r="C160">
-        <v>78.400000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="D160">
-        <v>46.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2661,13 +2661,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>44050</v>
+        <v>44035</v>
       </c>
       <c r="C161">
-        <v>82.4</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="D161">
-        <v>42.6</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,13 +2675,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>44051</v>
+        <v>44036</v>
       </c>
       <c r="C162">
-        <v>84.7</v>
+        <v>75.7</v>
       </c>
       <c r="D162">
-        <v>38.299999999999997</v>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,13 +2689,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>44052</v>
+        <v>44037</v>
       </c>
       <c r="C163">
-        <v>81.3</v>
+        <v>78.2</v>
       </c>
       <c r="D163">
-        <v>41.6</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2703,13 +2703,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>44053</v>
+        <v>44038</v>
       </c>
       <c r="C164">
-        <v>78.400000000000006</v>
+        <v>74.2</v>
       </c>
       <c r="D164">
-        <v>48</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,13 +2717,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>44054</v>
+        <v>44039</v>
       </c>
       <c r="C165">
-        <v>77.8</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D165">
-        <v>58.3</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2731,13 +2731,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>44055</v>
+        <v>44040</v>
       </c>
       <c r="C166">
-        <v>75.2</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D166">
-        <v>67.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,13 +2745,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>44056</v>
+        <v>44041</v>
       </c>
       <c r="C167">
-        <v>74.8</v>
+        <v>81.5</v>
       </c>
       <c r="D167">
-        <v>57.2</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,13 +2759,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>44057</v>
+        <v>44042</v>
       </c>
       <c r="C168">
-        <v>75.8</v>
+        <v>84.4</v>
       </c>
       <c r="D168">
-        <v>54.8</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -2773,13 +2773,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>44058</v>
+        <v>44043</v>
       </c>
       <c r="C169">
-        <v>74.3</v>
+        <v>84</v>
       </c>
       <c r="D169">
-        <v>57.9</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,13 +2787,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>44059</v>
+        <v>44044</v>
       </c>
       <c r="C170">
-        <v>74.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="D170">
-        <v>57.6</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,13 +2801,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>44060</v>
+        <v>44045</v>
       </c>
       <c r="C171">
-        <v>73.5</v>
+        <v>75.3</v>
       </c>
       <c r="D171">
-        <v>51.1</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2815,13 +2815,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>44061</v>
+        <v>44046</v>
       </c>
       <c r="C172">
-        <v>75.8</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D172">
-        <v>46</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,13 +2829,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>44062</v>
+        <v>44047</v>
       </c>
       <c r="C173">
-        <v>71.5</v>
+        <v>76</v>
       </c>
       <c r="D173">
-        <v>66.7</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -2843,13 +2843,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>44063</v>
+        <v>44048</v>
       </c>
       <c r="C174">
-        <v>70</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D174">
-        <v>79.400000000000006</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,13 +2857,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>44064</v>
+        <v>44049</v>
       </c>
       <c r="C175">
-        <v>77</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D175">
-        <v>59.8</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2871,13 +2871,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>44065</v>
+        <v>44050</v>
       </c>
       <c r="C176">
-        <v>79.2</v>
+        <v>82.4</v>
       </c>
       <c r="D176">
-        <v>54.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -2885,13 +2885,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>44066</v>
+        <v>44051</v>
       </c>
       <c r="C177">
-        <v>79.8</v>
+        <v>84.7</v>
       </c>
       <c r="D177">
-        <v>52.9</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,13 +2899,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>44067</v>
+        <v>44052</v>
       </c>
       <c r="C178">
-        <v>78.3</v>
+        <v>81.3</v>
       </c>
       <c r="D178">
-        <v>60.7</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,13 +2913,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>44068</v>
+        <v>44053</v>
       </c>
       <c r="C179">
-        <v>74.400000000000006</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D179">
-        <v>68.3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -2927,13 +2927,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>44069</v>
+        <v>44054</v>
       </c>
       <c r="C180">
-        <v>73.599999999999994</v>
+        <v>77.8</v>
       </c>
       <c r="D180">
-        <v>62.9</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,13 +2941,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>44070</v>
+        <v>44055</v>
       </c>
       <c r="C181">
-        <v>76.8</v>
+        <v>75.2</v>
       </c>
       <c r="D181">
-        <v>52.4</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,13 +2955,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>44071</v>
+        <v>44056</v>
       </c>
       <c r="C182">
-        <v>75.400000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="D182">
-        <v>47.6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,13 +2969,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>44072</v>
+        <v>44057</v>
       </c>
       <c r="C183">
-        <v>79.099999999999994</v>
+        <v>75.8</v>
       </c>
       <c r="D183">
-        <v>49.2</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -2983,13 +2983,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>44073</v>
+        <v>44058</v>
       </c>
       <c r="C184">
-        <v>77.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="D184">
-        <v>60.3</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,13 +2997,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>44074</v>
+        <v>44059</v>
       </c>
       <c r="C185">
-        <v>77.900000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="D185">
-        <v>62.1</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,13 +3011,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>44075</v>
+        <v>44060</v>
       </c>
       <c r="C186">
-        <v>78.5</v>
+        <v>73.5</v>
       </c>
       <c r="D186">
-        <v>45.1</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,13 +3025,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>44076</v>
+        <v>44061</v>
       </c>
       <c r="C187">
-        <v>78.099999999999994</v>
+        <v>75.8</v>
       </c>
       <c r="D187">
-        <v>50.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,13 +3039,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>44077</v>
+        <v>44062</v>
       </c>
       <c r="C188">
-        <v>77.3</v>
+        <v>71.5</v>
       </c>
       <c r="D188">
-        <v>52.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,13 +3053,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>44078</v>
+        <v>44063</v>
       </c>
       <c r="C189">
-        <v>65.2</v>
+        <v>70</v>
       </c>
       <c r="D189">
-        <v>93</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,13 +3067,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>44079</v>
+        <v>44064</v>
       </c>
       <c r="C190">
-        <v>70.3</v>
+        <v>77</v>
       </c>
       <c r="D190">
-        <v>63.5</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3081,13 +3081,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>44080</v>
+        <v>44065</v>
       </c>
       <c r="C191">
-        <v>71.7</v>
+        <v>79.2</v>
       </c>
       <c r="D191">
-        <v>62.9</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3095,13 +3095,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>44081</v>
+        <v>44066</v>
       </c>
       <c r="C192">
-        <v>74.5</v>
+        <v>79.8</v>
       </c>
       <c r="D192">
-        <v>59.8</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,13 +3109,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>44082</v>
+        <v>44067</v>
       </c>
       <c r="C193">
-        <v>71.2</v>
+        <v>78.3</v>
       </c>
       <c r="D193">
-        <v>63</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,13 +3123,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>44083</v>
+        <v>44068</v>
       </c>
       <c r="C194">
-        <v>72.2</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D194">
-        <v>59.1</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3137,13 +3137,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>44084</v>
+        <v>44069</v>
       </c>
       <c r="C195">
-        <v>73.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="D195">
-        <v>63.3</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,13 +3151,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>44085</v>
+        <v>44070</v>
       </c>
       <c r="C196">
-        <v>73.7</v>
+        <v>76.8</v>
       </c>
       <c r="D196">
-        <v>56.7</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3165,13 +3165,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>44086</v>
+        <v>44071</v>
       </c>
       <c r="C197">
-        <v>73.900000000000006</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D197">
-        <v>52.2</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3179,13 +3179,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>44087</v>
+        <v>44072</v>
       </c>
       <c r="C198">
-        <v>73.099999999999994</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="D198">
-        <v>54.1</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,13 +3193,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>44088</v>
+        <v>44073</v>
       </c>
       <c r="C199">
-        <v>74.400000000000006</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D199">
-        <v>54.6</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3207,13 +3207,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>44089</v>
+        <v>44074</v>
       </c>
       <c r="C200">
-        <v>74.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="D200">
-        <v>49.9</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,13 +3221,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>44090</v>
+        <v>44075</v>
       </c>
       <c r="C201">
-        <v>73.2</v>
+        <v>78.5</v>
       </c>
       <c r="D201">
-        <v>54.7</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,13 +3235,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>44091</v>
+        <v>44076</v>
       </c>
       <c r="C202">
-        <v>70.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="D202">
-        <v>67.900000000000006</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,13 +3249,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>44092</v>
+        <v>44077</v>
       </c>
       <c r="C203">
-        <v>66.8</v>
+        <v>77.3</v>
       </c>
       <c r="D203">
-        <v>52</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,13 +3263,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>44093</v>
+        <v>44078</v>
       </c>
       <c r="C204">
-        <v>63</v>
+        <v>65.2</v>
       </c>
       <c r="D204">
-        <v>44.2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3277,13 +3277,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>44094</v>
+        <v>44079</v>
       </c>
       <c r="C205">
-        <v>60.9</v>
+        <v>70.3</v>
       </c>
       <c r="D205">
-        <v>53.3</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,13 +3291,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>44095</v>
+        <v>44080</v>
       </c>
       <c r="C206">
-        <v>63.5</v>
+        <v>71.7</v>
       </c>
       <c r="D206">
-        <v>59.9</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,13 +3305,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>44096</v>
+        <v>44081</v>
       </c>
       <c r="C207">
-        <v>64</v>
+        <v>74.5</v>
       </c>
       <c r="D207">
-        <v>62.1</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,13 +3319,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>44097</v>
+        <v>44082</v>
       </c>
       <c r="C208">
-        <v>66.3</v>
+        <v>71.2</v>
       </c>
       <c r="D208">
-        <v>59.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,13 +3333,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>44098</v>
+        <v>44083</v>
       </c>
       <c r="C209">
-        <v>69.5</v>
+        <v>72.2</v>
       </c>
       <c r="D209">
-        <v>61.6</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3347,13 +3347,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>44099</v>
+        <v>44084</v>
       </c>
       <c r="C210">
-        <v>71.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="D210">
-        <v>62.8</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,13 +3361,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>44100</v>
+        <v>44085</v>
       </c>
       <c r="C211">
-        <v>69.2</v>
+        <v>73.7</v>
       </c>
       <c r="D211">
-        <v>76.8</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3375,13 +3375,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>44101</v>
+        <v>44086</v>
       </c>
       <c r="C212">
-        <v>62.1</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D212">
-        <v>64.400000000000006</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3389,13 +3389,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>44102</v>
+        <v>44087</v>
       </c>
       <c r="C213">
-        <v>64.7</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="D213">
-        <v>64.5</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,13 +3403,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>44103</v>
+        <v>44088</v>
       </c>
       <c r="C214">
-        <v>64.2</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D214">
-        <v>75.7</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3417,13 +3417,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>44104</v>
+        <v>44089</v>
       </c>
       <c r="C215">
-        <v>59.8</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D215">
-        <v>63.1</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3431,13 +3431,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>44105</v>
+        <v>44090</v>
       </c>
       <c r="C216">
-        <v>58.8</v>
+        <v>73.2</v>
       </c>
       <c r="D216">
-        <v>77.400000000000006</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3445,10 +3445,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>44106</v>
+        <v>44091</v>
       </c>
       <c r="C217">
-        <v>61.4</v>
+        <v>70.3</v>
       </c>
       <c r="D217">
         <v>67.900000000000006</v>
@@ -3459,13 +3459,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>44107</v>
+        <v>44092</v>
       </c>
       <c r="C218">
-        <v>63.4</v>
+        <v>66.8</v>
       </c>
       <c r="D218">
-        <v>66.2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3473,13 +3473,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>44108</v>
+        <v>44093</v>
       </c>
       <c r="C219">
-        <v>67.8</v>
+        <v>63</v>
       </c>
       <c r="D219">
-        <v>71</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -3487,13 +3487,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>44109</v>
+        <v>44094</v>
       </c>
       <c r="C220">
-        <v>72.2</v>
+        <v>60.9</v>
       </c>
       <c r="D220">
-        <v>75.8</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -3501,13 +3501,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>44110</v>
+        <v>44095</v>
       </c>
       <c r="C221">
-        <v>69.3</v>
+        <v>63.5</v>
       </c>
       <c r="D221">
-        <v>75.2</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,13 +3515,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>44111</v>
+        <v>44096</v>
       </c>
       <c r="C222">
-        <v>66.8</v>
+        <v>64</v>
       </c>
       <c r="D222">
-        <v>80</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -3529,13 +3529,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>44112</v>
+        <v>44097</v>
       </c>
       <c r="C223">
-        <v>62.8</v>
+        <v>66.3</v>
       </c>
       <c r="D223">
-        <v>87.7</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -3543,13 +3543,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>44113</v>
+        <v>44098</v>
       </c>
       <c r="C224">
-        <v>62.4</v>
+        <v>69.5</v>
       </c>
       <c r="D224">
-        <v>92.7</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,13 +3557,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>44114</v>
+        <v>44099</v>
       </c>
       <c r="C225">
-        <v>62.9</v>
+        <v>71.2</v>
       </c>
       <c r="D225">
-        <v>88</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,13 +3571,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>44115</v>
+        <v>44100</v>
       </c>
       <c r="C226">
-        <v>61.6</v>
+        <v>69.2</v>
       </c>
       <c r="D226">
-        <v>80.5</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,13 +3585,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>44116</v>
+        <v>44101</v>
       </c>
       <c r="C227">
-        <v>62.8</v>
+        <v>62.1</v>
       </c>
       <c r="D227">
-        <v>80.2</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,13 +3599,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1">
-        <v>44117</v>
+        <v>44102</v>
       </c>
       <c r="C228">
-        <v>59.9</v>
+        <v>64.7</v>
       </c>
       <c r="D228">
-        <v>84.6</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -3613,13 +3613,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>44118</v>
+        <v>44103</v>
       </c>
       <c r="C229">
-        <v>53.1</v>
+        <v>64.2</v>
       </c>
       <c r="D229">
-        <v>71.2</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,13 +3627,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>44119</v>
+        <v>44104</v>
       </c>
       <c r="C230">
-        <v>55.6</v>
+        <v>59.8</v>
       </c>
       <c r="D230">
-        <v>82.8</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,13 +3641,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>44120</v>
+        <v>44105</v>
       </c>
       <c r="C231">
-        <v>60.8</v>
+        <v>58.8</v>
       </c>
       <c r="D231">
-        <v>79.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,13 +3655,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>44121</v>
+        <v>44106</v>
       </c>
       <c r="C232">
-        <v>60.3</v>
+        <v>61.4</v>
       </c>
       <c r="D232">
-        <v>80.599999999999994</v>
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,13 +3669,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>44122</v>
+        <v>44107</v>
       </c>
       <c r="C233">
-        <v>51.6</v>
+        <v>63.4</v>
       </c>
       <c r="D233">
-        <v>73.2</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,13 +3683,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>44123</v>
+        <v>44108</v>
       </c>
       <c r="C234">
-        <v>49.6</v>
+        <v>67.8</v>
       </c>
       <c r="D234">
-        <v>74.7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,13 +3697,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>44124</v>
+        <v>44109</v>
       </c>
       <c r="C235">
-        <v>47.9</v>
+        <v>72.2</v>
       </c>
       <c r="D235">
-        <v>74.599999999999994</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,13 +3711,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>44125</v>
+        <v>44110</v>
       </c>
       <c r="C236">
-        <v>50.2</v>
+        <v>69.3</v>
       </c>
       <c r="D236">
-        <v>72.599999999999994</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -3725,13 +3725,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>44126</v>
+        <v>44111</v>
       </c>
       <c r="C237">
-        <v>55.6</v>
+        <v>66.8</v>
       </c>
       <c r="D237">
-        <v>68.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,13 +3739,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>44127</v>
+        <v>44112</v>
       </c>
       <c r="C238">
-        <v>56.2</v>
+        <v>62.8</v>
       </c>
       <c r="D238">
-        <v>70.599999999999994</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -3753,13 +3753,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>44128</v>
+        <v>44113</v>
       </c>
       <c r="C239">
-        <v>54.6</v>
+        <v>62.4</v>
       </c>
       <c r="D239">
-        <v>77.5</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,13 +3767,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>44129</v>
+        <v>44114</v>
       </c>
       <c r="C240">
-        <v>59.7</v>
+        <v>62.9</v>
       </c>
       <c r="D240">
-        <v>78.599999999999994</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,13 +3781,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>44130</v>
+        <v>44115</v>
       </c>
       <c r="C241">
-        <v>56.9</v>
+        <v>61.6</v>
       </c>
       <c r="D241">
-        <v>90.8</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -3795,13 +3795,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>44131</v>
+        <v>44116</v>
       </c>
       <c r="C242">
-        <v>52.4</v>
+        <v>62.8</v>
       </c>
       <c r="D242">
-        <v>95.5</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,13 +3809,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>44132</v>
+        <v>44117</v>
       </c>
       <c r="C243">
-        <v>56.6</v>
+        <v>59.9</v>
       </c>
       <c r="D243">
-        <v>90.3</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -3823,13 +3823,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>44133</v>
+        <v>44118</v>
       </c>
       <c r="C244">
-        <v>52</v>
+        <v>53.1</v>
       </c>
       <c r="D244">
-        <v>100</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -3837,13 +3837,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>44134</v>
+        <v>44119</v>
       </c>
       <c r="C245">
-        <v>51.9</v>
+        <v>55.6</v>
       </c>
       <c r="D245">
-        <v>91.5</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,13 +3851,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>44135</v>
+        <v>44120</v>
       </c>
       <c r="C246">
-        <v>45.1</v>
+        <v>60.8</v>
       </c>
       <c r="D246">
-        <v>92</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,13 +3865,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>44136</v>
+        <v>44121</v>
       </c>
       <c r="C247">
-        <v>47.6</v>
+        <v>60.3</v>
       </c>
       <c r="D247">
-        <v>79.2</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,13 +3879,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>44137</v>
+        <v>44122</v>
       </c>
       <c r="C248">
-        <v>47.5</v>
+        <v>51.6</v>
       </c>
       <c r="D248">
-        <v>77</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,13 +3893,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>44138</v>
+        <v>44123</v>
       </c>
       <c r="C249">
-        <v>51.1</v>
+        <v>49.6</v>
       </c>
       <c r="D249">
-        <v>83.3</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,13 +3907,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>44139</v>
+        <v>44124</v>
       </c>
       <c r="C250">
-        <v>49.5</v>
+        <v>47.9</v>
       </c>
       <c r="D250">
-        <v>81</v>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,13 +3921,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>44140</v>
+        <v>44125</v>
       </c>
       <c r="C251">
-        <v>46.9</v>
+        <v>50.2</v>
       </c>
       <c r="D251">
-        <v>82.1</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -3935,13 +3935,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>44141</v>
+        <v>44126</v>
       </c>
       <c r="C252">
-        <v>49</v>
+        <v>55.6</v>
       </c>
       <c r="D252">
-        <v>84.2</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,13 +3949,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>44142</v>
+        <v>44127</v>
       </c>
       <c r="C253">
-        <v>47.9</v>
+        <v>56.2</v>
       </c>
       <c r="D253">
-        <v>83.2</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,13 +3963,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>44143</v>
+        <v>44128</v>
       </c>
       <c r="C254">
-        <v>38.4</v>
+        <v>54.6</v>
       </c>
       <c r="D254">
-        <v>97.9</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,13 +3977,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>44144</v>
+        <v>44129</v>
       </c>
       <c r="C255">
-        <v>43.9</v>
+        <v>59.7</v>
       </c>
       <c r="D255">
-        <v>94.7</v>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,13 +3991,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>44145</v>
+        <v>44130</v>
       </c>
       <c r="C256">
-        <v>44.5</v>
+        <v>56.9</v>
       </c>
       <c r="D256">
-        <v>89.6</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,13 +4005,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>44146</v>
+        <v>44131</v>
       </c>
       <c r="C257">
-        <v>45.8</v>
+        <v>52.4</v>
       </c>
       <c r="D257">
-        <v>74.7</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,13 +4019,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>44147</v>
+        <v>44132</v>
       </c>
       <c r="C258">
-        <v>47.4</v>
+        <v>56.6</v>
       </c>
       <c r="D258">
-        <v>73.900000000000006</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,13 +4033,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>44148</v>
+        <v>44133</v>
       </c>
       <c r="C259">
-        <v>47.1</v>
+        <v>52</v>
       </c>
       <c r="D259">
-        <v>83.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4047,13 +4047,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>44149</v>
+        <v>44134</v>
       </c>
       <c r="C260">
-        <v>47.9</v>
+        <v>51.9</v>
       </c>
       <c r="D260">
-        <v>84.7</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4061,13 +4061,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>44150</v>
+        <v>44135</v>
       </c>
       <c r="C261">
-        <v>47.1</v>
+        <v>45.1</v>
       </c>
       <c r="D261">
-        <v>77.900000000000006</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4075,13 +4075,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>44151</v>
+        <v>44136</v>
       </c>
       <c r="C262">
-        <v>42.7</v>
+        <v>47.6</v>
       </c>
       <c r="D262">
-        <v>84</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4089,13 +4089,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>44152</v>
+        <v>44137</v>
       </c>
       <c r="C263">
-        <v>44</v>
+        <v>47.5</v>
       </c>
       <c r="D263">
-        <v>87.1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,13 +4103,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>44153</v>
+        <v>44138</v>
       </c>
       <c r="C264">
-        <v>45</v>
+        <v>51.1</v>
       </c>
       <c r="D264">
-        <v>93.9</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,13 +4117,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>44154</v>
+        <v>44139</v>
       </c>
       <c r="C265">
-        <v>43.8</v>
+        <v>49.5</v>
       </c>
       <c r="D265">
-        <v>84.8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,13 +4131,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>44155</v>
+        <v>44140</v>
       </c>
       <c r="C266">
-        <v>45.4</v>
+        <v>46.9</v>
       </c>
       <c r="D266">
-        <v>68.7</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,13 +4145,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>44156</v>
+        <v>44141</v>
       </c>
       <c r="C267">
-        <v>41.4</v>
+        <v>49</v>
       </c>
       <c r="D267">
-        <v>69</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4159,13 +4159,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>44157</v>
+        <v>44142</v>
       </c>
       <c r="C268">
-        <v>38.6</v>
+        <v>47.9</v>
       </c>
       <c r="D268">
-        <v>71.5</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4173,13 +4173,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>44158</v>
+        <v>44143</v>
       </c>
       <c r="C269">
-        <v>40.9</v>
+        <v>38.4</v>
       </c>
       <c r="D269">
-        <v>72.7</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,13 +4187,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>44159</v>
+        <v>44144</v>
       </c>
       <c r="C270">
-        <v>42.4</v>
+        <v>43.9</v>
       </c>
       <c r="D270">
-        <v>74.099999999999994</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,13 +4201,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>44160</v>
+        <v>44145</v>
       </c>
       <c r="C271">
-        <v>39.5</v>
+        <v>44.5</v>
       </c>
       <c r="D271">
-        <v>80.8</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,13 +4215,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>44161</v>
+        <v>44146</v>
       </c>
       <c r="C272">
-        <v>37</v>
+        <v>45.8</v>
       </c>
       <c r="D272">
-        <v>81.599999999999994</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,13 +4229,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>44162</v>
+        <v>44147</v>
       </c>
       <c r="C273">
-        <v>35.5</v>
+        <v>47.4</v>
       </c>
       <c r="D273">
-        <v>85</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -4243,13 +4243,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>44163</v>
+        <v>44148</v>
       </c>
       <c r="C274">
-        <v>29.7</v>
+        <v>47.1</v>
       </c>
       <c r="D274">
-        <v>97.2</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,13 +4257,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>44164</v>
+        <v>44149</v>
       </c>
       <c r="C275">
-        <v>34.5</v>
+        <v>47.9</v>
       </c>
       <c r="D275">
-        <v>94.7</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -4271,13 +4271,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>44165</v>
+        <v>44150</v>
       </c>
       <c r="C276">
-        <v>33.5</v>
+        <v>47.1</v>
       </c>
       <c r="D276">
-        <v>96.1</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -4285,13 +4285,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>44166</v>
+        <v>44151</v>
       </c>
       <c r="C277">
-        <v>33.299999999999997</v>
+        <v>42.7</v>
       </c>
       <c r="D277">
-        <v>91.3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,13 +4299,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>44167</v>
+        <v>44152</v>
       </c>
       <c r="C278">
-        <v>32.6</v>
+        <v>44</v>
       </c>
       <c r="D278">
-        <v>88.1</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4313,13 +4313,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>44168</v>
+        <v>44153</v>
       </c>
       <c r="C279">
-        <v>34.6</v>
+        <v>45</v>
       </c>
       <c r="D279">
-        <v>89.6</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,13 +4327,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>44169</v>
+        <v>44154</v>
       </c>
       <c r="C280">
-        <v>44.5</v>
+        <v>43.8</v>
       </c>
       <c r="D280">
-        <v>93</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -4341,13 +4341,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>44170</v>
+        <v>44155</v>
       </c>
       <c r="C281">
-        <v>48.6</v>
+        <v>45.4</v>
       </c>
       <c r="D281">
-        <v>93.4</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,13 +4355,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>44171</v>
+        <v>44156</v>
       </c>
       <c r="C282">
-        <v>37.9</v>
+        <v>41.4</v>
       </c>
       <c r="D282">
-        <v>95.8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,13 +4369,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>44172</v>
+        <v>44157</v>
       </c>
       <c r="C283">
-        <v>31.5</v>
+        <v>38.6</v>
       </c>
       <c r="D283">
-        <v>92.4</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,13 +4383,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>44173</v>
+        <v>44158</v>
       </c>
       <c r="C284">
-        <v>31.2</v>
+        <v>40.9</v>
       </c>
       <c r="D284">
-        <v>93.4</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -4397,13 +4397,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>44174</v>
+        <v>44159</v>
       </c>
       <c r="C285">
-        <v>30.3</v>
+        <v>42.4</v>
       </c>
       <c r="D285">
-        <v>95.3</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,13 +4411,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="C286">
-        <v>35.700000000000003</v>
+        <v>39.5</v>
       </c>
       <c r="D286">
-        <v>99</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,13 +4425,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>44176</v>
+        <v>44161</v>
       </c>
       <c r="C287">
-        <v>38.6</v>
+        <v>37</v>
       </c>
       <c r="D287">
-        <v>98.1</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,13 +4439,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>44177</v>
+        <v>44162</v>
       </c>
       <c r="C288">
-        <v>38</v>
+        <v>35.5</v>
       </c>
       <c r="D288">
-        <v>96.7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,13 +4453,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>44178</v>
+        <v>44163</v>
       </c>
       <c r="C289">
-        <v>40.200000000000003</v>
+        <v>29.7</v>
       </c>
       <c r="D289">
-        <v>96.9</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,13 +4467,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>44179</v>
+        <v>44164</v>
       </c>
       <c r="C290">
-        <v>42.2</v>
+        <v>34.5</v>
       </c>
       <c r="D290">
-        <v>91.6</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,13 +4481,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>44180</v>
+        <v>44165</v>
       </c>
       <c r="C291">
-        <v>41.3</v>
+        <v>33.5</v>
       </c>
       <c r="D291">
-        <v>87.4</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,13 +4495,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>44181</v>
+        <v>44166</v>
       </c>
       <c r="C292">
-        <v>41.1</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D292">
-        <v>84.3</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,13 +4509,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>44182</v>
+        <v>44167</v>
       </c>
       <c r="C293">
-        <v>38.5</v>
+        <v>32.6</v>
       </c>
       <c r="D293">
-        <v>89</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -4523,13 +4523,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>44183</v>
+        <v>44168</v>
       </c>
       <c r="C294">
-        <v>37.4</v>
+        <v>34.6</v>
       </c>
       <c r="D294">
-        <v>89.8</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -4537,13 +4537,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>44184</v>
+        <v>44169</v>
       </c>
       <c r="C295">
-        <v>37.4</v>
+        <v>44.5</v>
       </c>
       <c r="D295">
-        <v>86.4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>44185</v>
+        <v>44170</v>
       </c>
       <c r="C296">
-        <v>37.4</v>
+        <v>48.6</v>
       </c>
       <c r="D296">
-        <v>88.8</v>
+        <v>93.4</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -4565,13 +4565,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>44186</v>
+        <v>44171</v>
       </c>
       <c r="C297">
-        <v>36.700000000000003</v>
+        <v>37.9</v>
       </c>
       <c r="D297">
-        <v>92.3</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,13 +4579,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>44187</v>
+        <v>44172</v>
       </c>
       <c r="C298">
-        <v>37.200000000000003</v>
+        <v>31.5</v>
       </c>
       <c r="D298">
-        <v>90.8</v>
+        <v>92.4</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,13 +4593,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>44188</v>
+        <v>44173</v>
       </c>
       <c r="C299">
-        <v>39.4</v>
+        <v>31.2</v>
       </c>
       <c r="D299">
-        <v>84</v>
+        <v>93.4</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,13 +4607,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>44189</v>
+        <v>44174</v>
       </c>
       <c r="C300">
-        <v>40.9</v>
+        <v>30.3</v>
       </c>
       <c r="D300">
-        <v>92.7</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -4621,13 +4621,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>44190</v>
+        <v>44175</v>
       </c>
       <c r="C301">
-        <v>43.6</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D301">
-        <v>89.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,13 +4635,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>44191</v>
+        <v>44176</v>
       </c>
       <c r="C302">
-        <v>39.299999999999997</v>
+        <v>38.6</v>
       </c>
       <c r="D302">
-        <v>89.4</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,13 +4649,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>44192</v>
+        <v>44177</v>
       </c>
       <c r="C303">
-        <v>35.6</v>
+        <v>38</v>
       </c>
       <c r="D303">
-        <v>96.1</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,13 +4663,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>44193</v>
+        <v>44178</v>
       </c>
       <c r="C304">
-        <v>47.3</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D304">
-        <v>91</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,13 +4677,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>44194</v>
+        <v>44179</v>
       </c>
       <c r="C305">
-        <v>43.2</v>
+        <v>42.2</v>
       </c>
       <c r="D305">
-        <v>86.3</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,13 +4691,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>44195</v>
+        <v>44180</v>
       </c>
       <c r="C306">
         <v>41.3</v>
       </c>
       <c r="D306">
-        <v>92.1</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,13 +4705,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>44196</v>
+        <v>44181</v>
       </c>
       <c r="C307">
-        <v>42.9</v>
+        <v>41.1</v>
       </c>
       <c r="D307">
-        <v>91</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,13 +4719,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>44197</v>
+        <v>44182</v>
       </c>
       <c r="C308">
-        <v>43.3</v>
+        <v>38.5</v>
       </c>
       <c r="D308">
-        <v>81.8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,13 +4733,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>44198</v>
+        <v>44183</v>
       </c>
       <c r="C309">
-        <v>38.1</v>
+        <v>37.4</v>
       </c>
       <c r="D309">
-        <v>86.8</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -4747,13 +4747,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>44199</v>
+        <v>44184</v>
       </c>
       <c r="C310">
-        <v>44.2</v>
+        <v>37.4</v>
       </c>
       <c r="D310">
-        <v>97.8</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -4761,13 +4761,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>44200</v>
+        <v>44185</v>
       </c>
       <c r="C311">
-        <v>47.2</v>
+        <v>37.4</v>
       </c>
       <c r="D311">
-        <v>98</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,13 +4775,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>44201</v>
+        <v>44186</v>
       </c>
       <c r="C312">
-        <v>46.3</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D312">
-        <v>87.7</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,13 +4789,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>44202</v>
+        <v>44187</v>
       </c>
       <c r="C313">
-        <v>40.799999999999997</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D313">
-        <v>87.8</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,13 +4803,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>44203</v>
+        <v>44188</v>
       </c>
       <c r="C314">
-        <v>43.2</v>
+        <v>39.4</v>
       </c>
       <c r="D314">
-        <v>89.8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,13 +4817,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="C315">
-        <v>37.4</v>
+        <v>40.9</v>
       </c>
       <c r="D315">
-        <v>93.5</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,13 +4831,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>44205</v>
+        <v>44190</v>
       </c>
       <c r="C316">
-        <v>35.200000000000003</v>
+        <v>43.6</v>
       </c>
       <c r="D316">
-        <v>92.2</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,13 +4845,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>44206</v>
+        <v>44191</v>
       </c>
       <c r="C317">
-        <v>33.9</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D317">
-        <v>97.1</v>
+        <v>89.4</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,13 +4859,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>44207</v>
+        <v>44192</v>
       </c>
       <c r="C318">
-        <v>32</v>
+        <v>35.6</v>
       </c>
       <c r="D318">
-        <v>99.2</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -4873,13 +4873,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>44208</v>
+        <v>44193</v>
       </c>
       <c r="C319">
-        <v>33.200000000000003</v>
+        <v>47.3</v>
       </c>
       <c r="D319">
-        <v>96.7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,13 +4887,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>44209</v>
+        <v>44194</v>
       </c>
       <c r="C320">
-        <v>33.1</v>
+        <v>43.2</v>
       </c>
       <c r="D320">
-        <v>95.7</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,13 +4901,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>44210</v>
+        <v>44195</v>
       </c>
       <c r="C321">
-        <v>30.3</v>
+        <v>41.3</v>
       </c>
       <c r="D321">
-        <v>84.5</v>
+        <v>92.1</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,13 +4915,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>44211</v>
+        <v>44196</v>
       </c>
       <c r="C322">
-        <v>28.5</v>
+        <v>42.9</v>
       </c>
       <c r="D322">
-        <v>82.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,13 +4929,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>44212</v>
+        <v>44197</v>
       </c>
       <c r="C323">
-        <v>25.5</v>
+        <v>43.3</v>
       </c>
       <c r="D323">
-        <v>83.6</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,13 +4943,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>44213</v>
+        <v>44198</v>
       </c>
       <c r="C324">
-        <v>22.3</v>
+        <v>38.1</v>
       </c>
       <c r="D324">
-        <v>74.3</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,13 +4957,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>44214</v>
+        <v>44199</v>
       </c>
       <c r="C325">
-        <v>20.7</v>
+        <v>44.2</v>
       </c>
       <c r="D325">
-        <v>80.5</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,13 +4971,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>44215</v>
+        <v>44200</v>
       </c>
       <c r="C326">
-        <v>19.600000000000001</v>
+        <v>47.2</v>
       </c>
       <c r="D326">
-        <v>80.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,13 +4985,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>44216</v>
+        <v>44201</v>
       </c>
       <c r="C327">
-        <v>30.7</v>
+        <v>46.3</v>
       </c>
       <c r="D327">
-        <v>76.2</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -4999,13 +4999,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>44217</v>
+        <v>44202</v>
       </c>
       <c r="C328">
-        <v>37.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D328">
-        <v>76.099999999999994</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,13 +5013,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>44218</v>
+        <v>44203</v>
       </c>
       <c r="C329">
-        <v>38.6</v>
+        <v>43.2</v>
       </c>
       <c r="D329">
-        <v>77.3</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,13 +5027,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>44219</v>
+        <v>44204</v>
       </c>
       <c r="C330">
-        <v>41.4</v>
+        <v>37.4</v>
       </c>
       <c r="D330">
-        <v>78.900000000000006</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,13 +5041,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>44220</v>
+        <v>44205</v>
       </c>
       <c r="C331">
-        <v>42.3</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D331">
-        <v>82.8</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,13 +5055,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>44221</v>
+        <v>44206</v>
       </c>
       <c r="C332">
-        <v>38.700000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="D332">
-        <v>84</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,13 +5069,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>44222</v>
+        <v>44207</v>
       </c>
       <c r="C333">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D333">
-        <v>88.9</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,13 +5083,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>44223</v>
+        <v>44208</v>
       </c>
       <c r="C334">
-        <v>32.200000000000003</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D334">
-        <v>94.9</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,13 +5097,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>44224</v>
+        <v>44209</v>
       </c>
       <c r="C335">
-        <v>31.5</v>
+        <v>33.1</v>
       </c>
       <c r="D335">
-        <v>77.7</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,13 +5111,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>44225</v>
+        <v>44210</v>
       </c>
       <c r="C336">
-        <v>31.4</v>
+        <v>30.3</v>
       </c>
       <c r="D336">
-        <v>83.8</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,13 +5125,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>44226</v>
+        <v>44211</v>
       </c>
       <c r="C337">
-        <v>37.4</v>
+        <v>28.5</v>
       </c>
       <c r="D337">
-        <v>89.2</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,13 +5139,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>44227</v>
+        <v>44212</v>
       </c>
       <c r="C338">
-        <v>36.200000000000003</v>
+        <v>25.5</v>
       </c>
       <c r="D338">
-        <v>85.8</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5153,13 +5153,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>44228</v>
+        <v>44213</v>
       </c>
       <c r="C339">
-        <v>34.700000000000003</v>
+        <v>22.3</v>
       </c>
       <c r="D339">
-        <v>93.9</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,13 +5167,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>44229</v>
+        <v>44214</v>
       </c>
       <c r="C340">
-        <v>37</v>
+        <v>20.7</v>
       </c>
       <c r="D340">
-        <v>93.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5181,13 +5181,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>44230</v>
+        <v>44215</v>
       </c>
       <c r="C341">
-        <v>39.4</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D341">
-        <v>96.3</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,13 +5195,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>44231</v>
+        <v>44216</v>
       </c>
       <c r="C342">
-        <v>44.6</v>
+        <v>30.7</v>
       </c>
       <c r="D342">
-        <v>86.7</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5209,13 +5209,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>44232</v>
+        <v>44217</v>
       </c>
       <c r="C343">
-        <v>42.7</v>
+        <v>37.1</v>
       </c>
       <c r="D343">
-        <v>81.5</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5223,13 +5223,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>44233</v>
+        <v>44218</v>
       </c>
       <c r="C344">
-        <v>36.799999999999997</v>
+        <v>38.6</v>
       </c>
       <c r="D344">
-        <v>96.5</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5237,13 +5237,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>44234</v>
+        <v>44219</v>
       </c>
       <c r="C345">
-        <v>33.700000000000003</v>
+        <v>41.4</v>
       </c>
       <c r="D345">
-        <v>96.7</v>
+        <v>78.900000000000006</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5251,13 +5251,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>44235</v>
+        <v>44220</v>
       </c>
       <c r="C346">
-        <v>39.700000000000003</v>
+        <v>42.3</v>
       </c>
       <c r="D346">
-        <v>98</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,13 +5265,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>44236</v>
+        <v>44221</v>
       </c>
       <c r="C347">
-        <v>47.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="D347">
-        <v>82.1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -5279,13 +5279,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="C348">
-        <v>51.6</v>
+        <v>34</v>
       </c>
       <c r="D348">
-        <v>75.400000000000006</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,13 +5293,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>44238</v>
+        <v>44223</v>
       </c>
       <c r="C349">
-        <v>47.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D349">
-        <v>82</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -5307,13 +5307,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="C350">
-        <v>28.6</v>
+        <v>31.5</v>
       </c>
       <c r="D350">
-        <v>78.7</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -5321,13 +5321,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>44240</v>
+        <v>44225</v>
       </c>
       <c r="C351">
-        <v>23</v>
+        <v>31.4</v>
       </c>
       <c r="D351">
-        <v>49.4</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -5335,13 +5335,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>44241</v>
+        <v>44226</v>
       </c>
       <c r="C352">
-        <v>27.9</v>
+        <v>37.4</v>
       </c>
       <c r="D352">
-        <v>50.3</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,13 +5349,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>44242</v>
+        <v>44227</v>
       </c>
       <c r="C353">
-        <v>31.4</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D353">
-        <v>60.2</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -5363,13 +5363,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>44243</v>
+        <v>44228</v>
       </c>
       <c r="C354">
-        <v>26.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D354">
-        <v>63.8</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5377,13 +5377,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>44244</v>
+        <v>44229</v>
       </c>
       <c r="C355">
-        <v>30.1</v>
+        <v>37</v>
       </c>
       <c r="D355">
-        <v>60.7</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,13 +5391,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>44245</v>
+        <v>44230</v>
       </c>
       <c r="C356">
-        <v>36.700000000000003</v>
+        <v>39.4</v>
       </c>
       <c r="D356">
-        <v>77.5</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5405,13 +5405,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>44246</v>
+        <v>44231</v>
       </c>
       <c r="C357">
-        <v>27</v>
+        <v>44.6</v>
       </c>
       <c r="D357">
-        <v>62.3</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5419,13 +5419,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>44247</v>
+        <v>44232</v>
       </c>
       <c r="C358">
-        <v>31.5</v>
+        <v>42.7</v>
       </c>
       <c r="D358">
-        <v>75.8</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5433,13 +5433,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>44248</v>
+        <v>44233</v>
       </c>
       <c r="C359">
-        <v>38.299999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D359">
-        <v>82.1</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,13 +5447,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>44249</v>
+        <v>44234</v>
       </c>
       <c r="C360">
-        <v>37</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D360">
-        <v>87.8</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -5461,13 +5461,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>44250</v>
+        <v>44235</v>
       </c>
       <c r="C361">
-        <v>36.700000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D361">
-        <v>85.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -5475,13 +5475,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="C362">
-        <v>36.9</v>
+        <v>47.9</v>
       </c>
       <c r="D362">
-        <v>86.8</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -5489,13 +5489,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="C363">
-        <v>46.2</v>
+        <v>51.6</v>
       </c>
       <c r="D363">
-        <v>74.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -5503,13 +5503,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>44253</v>
+        <v>44238</v>
       </c>
       <c r="C364">
-        <v>53.4</v>
+        <v>47.6</v>
       </c>
       <c r="D364">
-        <v>65.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,13 +5517,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>44254</v>
+        <v>44239</v>
       </c>
       <c r="C365">
-        <v>47.5</v>
+        <v>28.6</v>
       </c>
       <c r="D365">
-        <v>72.400000000000006</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -5531,13 +5531,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>44255</v>
+        <v>44240</v>
       </c>
       <c r="C366">
-        <v>44.2</v>
+        <v>23</v>
       </c>
       <c r="D366">
-        <v>67.7</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,13 +5545,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>44256</v>
+        <v>44241</v>
       </c>
       <c r="C367">
-        <v>39.9</v>
+        <v>27.9</v>
       </c>
       <c r="D367">
-        <v>79.599999999999994</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,13 +5559,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>44257</v>
+        <v>44242</v>
       </c>
       <c r="C368">
-        <v>44.3</v>
+        <v>31.4</v>
       </c>
       <c r="D368">
-        <v>69.099999999999994</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -5573,13 +5573,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>44258</v>
+        <v>44243</v>
       </c>
       <c r="C369">
-        <v>43.6</v>
+        <v>26.5</v>
       </c>
       <c r="D369">
-        <v>68.5</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -5587,13 +5587,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>44259</v>
+        <v>44244</v>
       </c>
       <c r="C370">
-        <v>46.4</v>
+        <v>30.1</v>
       </c>
       <c r="D370">
-        <v>66.8</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -5601,13 +5601,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>44260</v>
+        <v>44245</v>
       </c>
       <c r="C371">
-        <v>50.3</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D371">
-        <v>48.4</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -5615,13 +5615,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>44261</v>
+        <v>44246</v>
       </c>
       <c r="C372">
-        <v>37.200000000000003</v>
+        <v>27</v>
       </c>
       <c r="D372">
-        <v>78.2</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -5629,13 +5629,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>44262</v>
+        <v>44247</v>
       </c>
       <c r="C373">
-        <v>37.5</v>
+        <v>31.5</v>
       </c>
       <c r="D373">
-        <v>67.599999999999994</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -5643,13 +5643,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>44263</v>
+        <v>44248</v>
       </c>
       <c r="C374">
-        <v>39.6</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D374">
-        <v>58.6</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -5657,13 +5657,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>44264</v>
+        <v>44249</v>
       </c>
       <c r="C375">
-        <v>38.1</v>
+        <v>37</v>
       </c>
       <c r="D375">
-        <v>61.7</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -5671,13 +5671,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>44265</v>
+        <v>44250</v>
       </c>
       <c r="C376">
-        <v>32.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D376">
-        <v>95.8</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -5685,13 +5685,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>44266</v>
+        <v>44251</v>
       </c>
       <c r="C377">
-        <v>30.7</v>
+        <v>36.9</v>
       </c>
       <c r="D377">
-        <v>80</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -5699,13 +5699,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>44267</v>
+        <v>44252</v>
       </c>
       <c r="C378">
-        <v>33.799999999999997</v>
+        <v>46.2</v>
       </c>
       <c r="D378">
-        <v>74.8</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -5713,13 +5713,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>44268</v>
+        <v>44253</v>
       </c>
       <c r="C379">
-        <v>39.5</v>
+        <v>53.4</v>
       </c>
       <c r="D379">
-        <v>85.6</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,13 +5727,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>44269</v>
+        <v>44254</v>
       </c>
       <c r="C380">
-        <v>45.4</v>
+        <v>47.5</v>
       </c>
       <c r="D380">
-        <v>78.8</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -5741,13 +5741,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>44270</v>
+        <v>44255</v>
       </c>
       <c r="C381">
-        <v>43.8</v>
+        <v>44.2</v>
       </c>
       <c r="D381">
-        <v>91</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -5755,13 +5755,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>44271</v>
+        <v>44256</v>
       </c>
       <c r="C382">
-        <v>41.9</v>
+        <v>39.9</v>
       </c>
       <c r="D382">
-        <v>94.8</v>
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,13 +5769,13 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>44272</v>
+        <v>44257</v>
       </c>
       <c r="C383">
-        <v>41.5</v>
+        <v>44.3</v>
       </c>
       <c r="D383">
-        <v>91.3</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -5783,13 +5783,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>44273</v>
+        <v>44258</v>
       </c>
       <c r="C384">
-        <v>40.9</v>
+        <v>43.6</v>
       </c>
       <c r="D384">
-        <v>83.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -5797,13 +5797,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>44274</v>
+        <v>44259</v>
       </c>
       <c r="C385">
-        <v>38.700000000000003</v>
+        <v>46.4</v>
       </c>
       <c r="D385">
-        <v>81.099999999999994</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -5811,12 +5811,222 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C386">
+        <v>50.3</v>
+      </c>
+      <c r="D386">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C387">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D387">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C388">
+        <v>37.5</v>
+      </c>
+      <c r="D388">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C389">
+        <v>39.6</v>
+      </c>
+      <c r="D389">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C390">
+        <v>38.1</v>
+      </c>
+      <c r="D390">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C391">
+        <v>32.6</v>
+      </c>
+      <c r="D391">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C392">
+        <v>30.7</v>
+      </c>
+      <c r="D392">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" s="1">
+        <v>44267</v>
+      </c>
+      <c r="C393">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D393">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C394">
+        <v>39.5</v>
+      </c>
+      <c r="D394">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" s="1">
+        <v>44269</v>
+      </c>
+      <c r="C395">
+        <v>45.4</v>
+      </c>
+      <c r="D395">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" s="1">
+        <v>44270</v>
+      </c>
+      <c r="C396">
+        <v>43.8</v>
+      </c>
+      <c r="D396">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" s="1">
+        <v>44271</v>
+      </c>
+      <c r="C397">
+        <v>41.9</v>
+      </c>
+      <c r="D397">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" s="1">
+        <v>44272</v>
+      </c>
+      <c r="C398">
+        <v>41.5</v>
+      </c>
+      <c r="D398">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" s="1">
+        <v>44273</v>
+      </c>
+      <c r="C399">
+        <v>40.9</v>
+      </c>
+      <c r="D399">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" s="1">
+        <v>44274</v>
+      </c>
+      <c r="C400">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D400">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" s="1">
         <v>44275</v>
       </c>
-      <c r="C386">
+      <c r="C401">
         <v>36.9</v>
       </c>
-      <c r="D386">
+      <c r="D401">
         <v>80.900000000000006</v>
       </c>
     </row>

--- a/Database/Cornestean/Temperatura_Umiditate_Bucuresti.xlsx
+++ b/Database/Cornestean/Temperatura_Umiditate_Bucuresti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository_licenta\Licenta_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2275CBEF-64E8-44C2-8220-45B0B181B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC672E1C-D851-4074-93DE-2748F29A11AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{197AABFA-7AFA-4E2F-B553-771013BD768C}"/>
   </bookViews>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D044566D-1185-474D-9F00-2EB6F350695A}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="H439" sqref="H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6030,6 +6030,566 @@
         <v>80.900000000000006</v>
       </c>
     </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C402">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D402">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" s="1">
+        <v>44277</v>
+      </c>
+      <c r="C403">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D403">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1">
+        <v>44278</v>
+      </c>
+      <c r="C404">
+        <v>38.1</v>
+      </c>
+      <c r="D404">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" s="1">
+        <v>44279</v>
+      </c>
+      <c r="C405">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D405">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" s="1">
+        <v>44280</v>
+      </c>
+      <c r="C406">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D406">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" s="1">
+        <v>44281</v>
+      </c>
+      <c r="C407">
+        <v>44.4</v>
+      </c>
+      <c r="D407">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" s="1">
+        <v>44282</v>
+      </c>
+      <c r="C408">
+        <v>47.3</v>
+      </c>
+      <c r="D408">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" s="1">
+        <v>44283</v>
+      </c>
+      <c r="C409">
+        <v>51.6</v>
+      </c>
+      <c r="D409">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" s="1">
+        <v>44284</v>
+      </c>
+      <c r="C410">
+        <v>49.4</v>
+      </c>
+      <c r="D410">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" s="1">
+        <v>44285</v>
+      </c>
+      <c r="C411">
+        <v>48.2</v>
+      </c>
+      <c r="D411">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1">
+        <v>44286</v>
+      </c>
+      <c r="C412">
+        <v>49.5</v>
+      </c>
+      <c r="D412">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1">
+        <v>44287</v>
+      </c>
+      <c r="C413">
+        <v>50.9</v>
+      </c>
+      <c r="D413">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1">
+        <v>44288</v>
+      </c>
+      <c r="C414">
+        <v>55.6</v>
+      </c>
+      <c r="D414">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C415">
+        <v>49.1</v>
+      </c>
+      <c r="D415">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C416">
+        <v>46</v>
+      </c>
+      <c r="D416">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" s="1">
+        <v>44291</v>
+      </c>
+      <c r="C417">
+        <v>45</v>
+      </c>
+      <c r="D417">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C418">
+        <v>48.9</v>
+      </c>
+      <c r="D418">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" s="1">
+        <v>44293</v>
+      </c>
+      <c r="C419">
+        <v>42.6</v>
+      </c>
+      <c r="D419">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" s="1">
+        <v>44294</v>
+      </c>
+      <c r="C420">
+        <v>41.8</v>
+      </c>
+      <c r="D420">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" s="1">
+        <v>44295</v>
+      </c>
+      <c r="C421">
+        <v>42.8</v>
+      </c>
+      <c r="D421">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1">
+        <v>44296</v>
+      </c>
+      <c r="C422">
+        <v>47.1</v>
+      </c>
+      <c r="D422">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" s="1">
+        <v>44297</v>
+      </c>
+      <c r="C423">
+        <v>48.4</v>
+      </c>
+      <c r="D423">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" s="1">
+        <v>44298</v>
+      </c>
+      <c r="C424">
+        <v>53</v>
+      </c>
+      <c r="D424">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1">
+        <v>44299</v>
+      </c>
+      <c r="C425">
+        <v>56.9</v>
+      </c>
+      <c r="D425">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1">
+        <v>44300</v>
+      </c>
+      <c r="C426">
+        <v>47.9</v>
+      </c>
+      <c r="D426">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1">
+        <v>44301</v>
+      </c>
+      <c r="C427">
+        <v>47.2</v>
+      </c>
+      <c r="D427">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1">
+        <v>44302</v>
+      </c>
+      <c r="C428">
+        <v>46.4</v>
+      </c>
+      <c r="D428">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1">
+        <v>44303</v>
+      </c>
+      <c r="C429">
+        <v>47.2</v>
+      </c>
+      <c r="D429">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1">
+        <v>44304</v>
+      </c>
+      <c r="C430">
+        <v>47.1</v>
+      </c>
+      <c r="D430">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C431">
+        <v>49.7</v>
+      </c>
+      <c r="D431">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C432">
+        <v>49.9</v>
+      </c>
+      <c r="D432">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" s="1">
+        <v>44307</v>
+      </c>
+      <c r="C433">
+        <v>52.4</v>
+      </c>
+      <c r="D433">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" s="1">
+        <v>44308</v>
+      </c>
+      <c r="C434">
+        <v>55.5</v>
+      </c>
+      <c r="D434">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" s="1">
+        <v>44309</v>
+      </c>
+      <c r="C435">
+        <v>56.6</v>
+      </c>
+      <c r="D435">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" s="1">
+        <v>44310</v>
+      </c>
+      <c r="C436">
+        <v>51.8</v>
+      </c>
+      <c r="D436">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" s="1">
+        <v>44311</v>
+      </c>
+      <c r="C437">
+        <v>52.8</v>
+      </c>
+      <c r="D437">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1">
+        <v>44312</v>
+      </c>
+      <c r="C438">
+        <v>55.9</v>
+      </c>
+      <c r="D438">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" s="1">
+        <v>44313</v>
+      </c>
+      <c r="C439">
+        <v>52</v>
+      </c>
+      <c r="D439">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" s="1">
+        <v>44314</v>
+      </c>
+      <c r="C440">
+        <v>45.2</v>
+      </c>
+      <c r="D440">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" s="1">
+        <v>44315</v>
+      </c>
+      <c r="C441">
+        <v>51.4</v>
+      </c>
+      <c r="D441">
+        <v>84.6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Cornestean/Temperatura_Umiditate_Bucuresti.xlsx
+++ b/Database/Cornestean/Temperatura_Umiditate_Bucuresti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\repository_licenta\Licenta_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC672E1C-D851-4074-93DE-2748F29A11AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100C252F-A29F-4F52-B6DF-5BA789919D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{197AABFA-7AFA-4E2F-B553-771013BD768C}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Temperatura</t>
+    <t>Temperatura (° F)</t>
   </si>
   <si>
-    <t>Umiditate</t>
+    <t>Umiditate (%)</t>
   </si>
 </sst>
 </file>
@@ -86,9 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,30 +406,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D044566D-1185-474D-9F00-2EB6F350695A}">
-  <dimension ref="A1:D441"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="H439" sqref="H439"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6588,6 +6591,482 @@
       </c>
       <c r="D441">
         <v>84.6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" s="1">
+        <v>44316</v>
+      </c>
+      <c r="C442">
+        <v>61.2</v>
+      </c>
+      <c r="D442">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" s="1">
+        <v>44317</v>
+      </c>
+      <c r="C443">
+        <v>67.8</v>
+      </c>
+      <c r="D443">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" s="1">
+        <v>44318</v>
+      </c>
+      <c r="C444">
+        <v>73.3</v>
+      </c>
+      <c r="D444">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" s="1">
+        <v>44319</v>
+      </c>
+      <c r="C445">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D445">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1">
+        <v>44320</v>
+      </c>
+      <c r="C446">
+        <v>60.5</v>
+      </c>
+      <c r="D446">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1">
+        <v>44321</v>
+      </c>
+      <c r="C447">
+        <v>57.3</v>
+      </c>
+      <c r="D447">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" s="1">
+        <v>44322</v>
+      </c>
+      <c r="C448">
+        <v>63.3</v>
+      </c>
+      <c r="D448">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" s="1">
+        <v>44323</v>
+      </c>
+      <c r="C449">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="D449">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" s="1">
+        <v>44324</v>
+      </c>
+      <c r="C450">
+        <v>59.7</v>
+      </c>
+      <c r="D450">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" s="1">
+        <v>44325</v>
+      </c>
+      <c r="C451">
+        <v>55.6</v>
+      </c>
+      <c r="D451">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" s="1">
+        <v>44326</v>
+      </c>
+      <c r="C452">
+        <v>59.2</v>
+      </c>
+      <c r="D452">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" s="1">
+        <v>44327</v>
+      </c>
+      <c r="C453">
+        <v>58.8</v>
+      </c>
+      <c r="D453">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" s="1">
+        <v>44328</v>
+      </c>
+      <c r="C454">
+        <v>62.6</v>
+      </c>
+      <c r="D454">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C455">
+        <v>59</v>
+      </c>
+      <c r="D455">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" s="1">
+        <v>44330</v>
+      </c>
+      <c r="C456">
+        <v>63.1</v>
+      </c>
+      <c r="D456">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" s="1">
+        <v>44331</v>
+      </c>
+      <c r="C457">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D457">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C458">
+        <v>62.1</v>
+      </c>
+      <c r="D458">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" s="1">
+        <v>44333</v>
+      </c>
+      <c r="C459">
+        <v>63.1</v>
+      </c>
+      <c r="D459">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" s="1">
+        <v>44334</v>
+      </c>
+      <c r="C460">
+        <v>62.7</v>
+      </c>
+      <c r="D460">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" s="1">
+        <v>44335</v>
+      </c>
+      <c r="C461">
+        <v>64.8</v>
+      </c>
+      <c r="D461">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" s="1">
+        <v>44336</v>
+      </c>
+      <c r="C462">
+        <v>55.4</v>
+      </c>
+      <c r="D462">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" s="1">
+        <v>44337</v>
+      </c>
+      <c r="C463">
+        <v>60.4</v>
+      </c>
+      <c r="D463">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" s="1">
+        <v>44338</v>
+      </c>
+      <c r="C464">
+        <v>63.4</v>
+      </c>
+      <c r="D464">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" s="1">
+        <v>44339</v>
+      </c>
+      <c r="C465">
+        <v>69.2</v>
+      </c>
+      <c r="D465">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" s="1">
+        <v>44340</v>
+      </c>
+      <c r="C466">
+        <v>69.8</v>
+      </c>
+      <c r="D466">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" s="1">
+        <v>44341</v>
+      </c>
+      <c r="C467">
+        <v>64.5</v>
+      </c>
+      <c r="D467">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" s="1">
+        <v>44342</v>
+      </c>
+      <c r="C468">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D468">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" s="1">
+        <v>44343</v>
+      </c>
+      <c r="C469">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="D469">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" s="1">
+        <v>44344</v>
+      </c>
+      <c r="C470">
+        <v>63.7</v>
+      </c>
+      <c r="D470">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" s="1">
+        <v>44345</v>
+      </c>
+      <c r="C471">
+        <v>65.5</v>
+      </c>
+      <c r="D471">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" s="1">
+        <v>44346</v>
+      </c>
+      <c r="C472">
+        <v>59.9</v>
+      </c>
+      <c r="D472">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" s="1">
+        <v>44347</v>
+      </c>
+      <c r="C473">
+        <v>57.8</v>
+      </c>
+      <c r="D473">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" s="1">
+        <v>44348</v>
+      </c>
+      <c r="C474">
+        <v>53.5</v>
+      </c>
+      <c r="D474">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" s="1">
+        <v>44349</v>
+      </c>
+      <c r="C475">
+        <v>57.3</v>
+      </c>
+      <c r="D475">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
